--- a/final Task Excel.xlsx
+++ b/final Task Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA 14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DD8B79-6146-46C9-A9AD-16BD9C8CEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9B7A7-7C3A-43C2-AA20-80EFEDF238DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sprint 7" sheetId="4" r:id="rId9"/>
     <sheet name="Sprint 8" sheetId="10" r:id="rId10"/>
     <sheet name=" monthly Payment" sheetId="6" r:id="rId11"/>
+    <sheet name="Charts" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="133">
   <si>
     <t>Month 1</t>
   </si>
@@ -590,6 +591,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sprint Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT BACKLOG	</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint </t>
+  </si>
+  <si>
+    <t>Expences</t>
   </si>
 </sst>
 </file>
@@ -881,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,53 +971,131 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,9 +1109,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,9 +1121,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,16 +1140,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,24 +1157,24 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,9 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,6 +1211,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1140,65 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,6 +1253,1541 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Expenses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D600-49CE-968D-810EA2D6094D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expences</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.1074681238615448E-3"/>
+                  <c:y val="-0.20537124802527654"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{2A57AB8F-2E0F-465A-A89E-00BB0F8FE4FB}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2768670309653498E-3"/>
+                  <c:y val="-0.1461295418641391"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{A97B71ED-C43B-44E4-B9C9-9F1FAB032DF7}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2768670309654335E-3"/>
+                  <c:y val="-0.20932069510268569"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{48E97990-BA88-451B-BEE4-A353EFD38DE5}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7322404371584699E-2"/>
+                  <c:y val="-0.30015797788309628"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{08F05E80-6D89-4C9D-AA09-9863969B0A5C}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5537340619307837E-3"/>
+                  <c:y val="-0.19352290679304904"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{26BC82EB-CF01-4179-97D8-BFD5A415C3B9}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8214936247723135E-2"/>
+                  <c:y val="-0.2764612954186414"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{25D3AC52-1D2A-45A2-B004-BA9872BDE1E0}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-IN"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1384335154827042E-2"/>
+                  <c:y val="-0.21721958925750395"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{D05F9057-EEC1-486C-9C0D-2B74B03DBCC2}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8305114524618848E-3"/>
+                  <c:y val="-0.32582938388625599"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{371ABD90-36C7-4377-922E-A34C16201A83}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.14353298050858396"/>
+                      <c:h val="5.9721859412123247E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D600-49CE-968D-810EA2D6094D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D600-49CE-968D-810EA2D6094D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1131859216"/>
+        <c:axId val="1131854416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1131859216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131854416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1131854416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131859216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2C91E1-81AA-A48E-4A29-16BDBCA07D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1486,504 +3053,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C9EDDA-EB9D-4505-A1B5-C3420ACE48FF}">
-  <dimension ref="B2:K31"/>
+  <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+    </row>
+    <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="109" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I8" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="K8" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="L8" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+    <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="48" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I9" s="51">
+        <v>3</v>
+      </c>
+      <c r="J9" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="K9" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="L9" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="105"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="106"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="46" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I12" s="51">
+        <v>5</v>
+      </c>
+      <c r="J12" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="K12" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="104" t="s">
+      <c r="L12" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="105"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="106"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="46" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I15" s="51">
+        <v>5</v>
+      </c>
+      <c r="J15" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="K15" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="L15" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="105"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="106"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46" t="s">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I19" s="51">
+        <v>8</v>
+      </c>
+      <c r="J19" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="K19" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="107" t="s">
+      <c r="L19" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="108"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I21" s="51">
+        <v>8</v>
+      </c>
+      <c r="J21" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="K21" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="107" t="s">
+      <c r="L21" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="108"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="42" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="46" t="s">
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I24" s="51">
+        <v>8</v>
+      </c>
+      <c r="J24" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="K24" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="107" t="s">
+      <c r="L24" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="108"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="46" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I26" s="51">
+        <v>5</v>
+      </c>
+      <c r="J26" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="K26" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="107" t="s">
+      <c r="L26" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="108"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="43" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="42" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="48" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I29" s="51">
+        <v>5</v>
+      </c>
+      <c r="J29" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="K29" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="104" t="s">
+      <c r="L29" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="105"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="106"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="49" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="58"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="46" t="s">
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I32" s="51">
+        <v>3</v>
+      </c>
+      <c r="J32" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="K32" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="107" t="s">
+      <c r="L32" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="108"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="H22:H23"/>
+  <mergeCells count="61">
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B32:G33"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G9"/>
-    <mergeCell ref="B10:G12"/>
-    <mergeCell ref="B13:G15"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="B24:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G29"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G18"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G31"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="B12:G14"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L29:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1993,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFE4E8C-7629-42D6-9310-D6E89A0C17A3}">
   <dimension ref="C3:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,26 +3639,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="87"/>
+      <c r="J3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="15" t="s">
         <v>16</v>
       </c>
@@ -2036,80 +3667,80 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="112" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="86"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="57"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="84"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="86"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="57"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="84"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="87"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="57"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="34"/>
@@ -2130,10 +3761,10 @@
       <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="98"/>
       <c r="J12" s="6" t="s">
         <v>30</v>
       </c>
@@ -2146,23 +3777,23 @@
       <c r="G13" s="8">
         <v>1000000</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="99">
         <v>0</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74">
+      <c r="I13" s="99"/>
+      <c r="J13" s="101">
         <v>40000</v>
       </c>
-      <c r="K13" s="74"/>
+      <c r="K13" s="101"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="N15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="52"/>
+      <c r="P15" s="80"/>
     </row>
     <row r="16" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H16" s="21" t="s">
@@ -2171,19 +3802,19 @@
       <c r="N16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="81">
         <v>3000</v>
       </c>
-      <c r="P16" s="53"/>
+      <c r="P16" s="81"/>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.3">
       <c r="N17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="81">
         <v>12000</v>
       </c>
-      <c r="P17" s="53"/>
+      <c r="P17" s="81"/>
     </row>
     <row r="18" spans="6:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F18" s="17" t="s">
@@ -2192,19 +3823,19 @@
       <c r="G18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="88" t="s">
+      <c r="H18" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
       <c r="N18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="81">
         <v>15000</v>
       </c>
-      <c r="P18" s="53"/>
+      <c r="P18" s="81"/>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F19" s="9" t="s">
@@ -2213,19 +3844,19 @@
       <c r="G19" s="25">
         <v>72000</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="105">
         <v>170000</v>
       </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
       <c r="N19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="81">
         <v>12000</v>
       </c>
-      <c r="P19" s="53"/>
+      <c r="P19" s="81"/>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F20" s="9" t="s">
@@ -2241,10 +3872,10 @@
       <c r="N20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="81">
         <v>15000</v>
       </c>
-      <c r="P20" s="53"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F21" s="9" t="s">
@@ -2260,10 +3891,10 @@
       <c r="N21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="93">
+      <c r="O21" s="121">
         <v>5000</v>
       </c>
-      <c r="P21" s="93"/>
+      <c r="P21" s="121"/>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F22" s="9" t="s">
@@ -2279,10 +3910,10 @@
       <c r="N22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="53">
+      <c r="O22" s="81">
         <v>6000</v>
       </c>
-      <c r="P22" s="53"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F23" s="9" t="s">
@@ -2298,10 +3929,10 @@
       <c r="N23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="81">
         <v>40000</v>
       </c>
-      <c r="P23" s="53"/>
+      <c r="P23" s="81"/>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F24" s="9" t="s">
@@ -2314,11 +3945,11 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="O24" s="94">
+      <c r="O24" s="122">
         <f>SUM(O16:P23)</f>
         <v>108000</v>
       </c>
-      <c r="P24" s="95"/>
+      <c r="P24" s="123"/>
       <c r="Q24" s="35" t="s">
         <v>115</v>
       </c>
@@ -2375,12 +4006,12 @@
         <f>SUM(G19:G27)</f>
         <v>590000</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="105">
         <v>170000</v>
       </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
     </row>
     <row r="32" spans="6:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F32" s="10" t="s">
@@ -2430,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595E73BF-4D25-40D6-8C15-978F061570CC}">
   <dimension ref="D3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2442,11 +4073,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="5" spans="4:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D5" s="17" t="s">
@@ -2566,9 +4197,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B4FBCF-46B2-4263-A282-1AA59BEEB87F}">
+  <dimension ref="D6:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="50">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50">
+        <v>2</v>
+      </c>
+      <c r="G6" s="50">
+        <v>3</v>
+      </c>
+      <c r="H6" s="50">
+        <v>4</v>
+      </c>
+      <c r="I6" s="50">
+        <v>5</v>
+      </c>
+      <c r="J6" s="50">
+        <v>6</v>
+      </c>
+      <c r="K6" s="50">
+        <v>7</v>
+      </c>
+      <c r="L6" s="50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="48">
+        <v>210000</v>
+      </c>
+      <c r="F7" s="48">
+        <v>180000</v>
+      </c>
+      <c r="G7" s="49">
+        <v>270000</v>
+      </c>
+      <c r="H7" s="49">
+        <v>190000</v>
+      </c>
+      <c r="I7" s="49">
+        <v>270000</v>
+      </c>
+      <c r="J7" s="49">
+        <v>270000</v>
+      </c>
+      <c r="K7" s="49">
+        <v>180000</v>
+      </c>
+      <c r="L7" s="49">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8215A4FF-E683-4E67-A4FF-173A35ECA330}">
-  <dimension ref="D1:K28"/>
+  <dimension ref="D2:I28"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
@@ -2584,313 +4295,311 @@
     <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" s="97" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:11" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="F2" s="101" t="s">
+    <row r="2" spans="4:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="F2" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="98" t="s">
+      <c r="G2" s="79"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="4:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="114" t="s">
+    <row r="5" spans="4:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="78">
         <v>210000</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="114"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="114"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="114"/>
-      <c r="E8" s="102" t="s">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="74"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="74"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="74"/>
+      <c r="E8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="78">
         <v>180000</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="114"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="103"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="114"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103"/>
-      <c r="K10" s="97"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="115" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="74"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="78"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="74"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="G11" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="78">
         <v>270000</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="115"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="115"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="115"/>
-      <c r="E14" s="102" t="s">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="75"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="75"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="78"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="75"/>
+      <c r="E14" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="78">
         <v>190000</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="115"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="115"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="75"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="75"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="G17" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I17" s="78">
         <v>270000</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="116"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="103"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="116"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="116"/>
-      <c r="E20" s="102" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="102" t="s">
+      <c r="G20" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="103">
+      <c r="I20" s="78">
         <v>270000</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="116"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="116"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="102" t="s">
+      <c r="G23" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="H23" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="103">
+      <c r="I23" s="78">
         <v>180000</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="117"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="117"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="117"/>
-      <c r="E26" s="102" t="s">
+      <c r="D26" s="77"/>
+      <c r="E26" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="102" t="s">
+      <c r="G26" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="102" t="s">
+      <c r="H26" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="78">
         <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="117"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="103"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="117"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="103"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -2916,6 +4625,13 @@
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="I8:I10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D28"/>
@@ -2927,18 +4643,11 @@
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2949,7 +4658,7 @@
   <dimension ref="B4:V26"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2971,16 +4680,16 @@
       <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
@@ -2989,48 +4698,48 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -3042,18 +4751,18 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="57"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="84"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -3071,10 +4780,10 @@
       <c r="D13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
@@ -3087,14 +4796,14 @@
       <c r="D14" s="30">
         <v>210000</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="86">
         <v>2360000</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="54">
+      <c r="F14" s="86"/>
+      <c r="G14" s="82">
         <v>3000</v>
       </c>
-      <c r="H14" s="54"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>
@@ -3111,10 +4820,10 @@
       <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="80"/>
     </row>
     <row r="20" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="22" t="s">
@@ -3123,10 +4832,10 @@
       <c r="D20" s="23">
         <v>45000</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="81">
         <v>57500</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="22" t="s">
@@ -3162,10 +4871,10 @@
         <f>SUM(D20:D22)</f>
         <v>150000</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="81">
         <v>57500</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="81"/>
     </row>
     <row r="26" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
@@ -3204,7 +4913,7 @@
   <dimension ref="B4:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3216,26 +4925,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
@@ -3244,65 +4953,65 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="113" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="84" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="57"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="84"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="57"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F10" s="20" t="s">
@@ -3316,10 +5025,10 @@
       <c r="E13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="17" t="s">
         <v>30</v>
       </c>
@@ -3332,14 +5041,14 @@
       <c r="E14" s="30">
         <v>180000</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="86">
         <v>2180000</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="54">
+      <c r="G14" s="86"/>
+      <c r="H14" s="82">
         <v>12000</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="17" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F17" s="21" t="s">
@@ -3347,78 +5056,78 @@
       </c>
     </row>
     <row r="20" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="52" t="s">
+      <c r="E20" s="85"/>
+      <c r="F20" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52" t="s">
+      <c r="G20" s="80"/>
+      <c r="H20" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="68">
+      <c r="E21" s="95"/>
+      <c r="F21" s="96">
         <v>50000</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="61">
+      <c r="G21" s="96"/>
+      <c r="H21" s="78">
         <v>48000</v>
       </c>
-      <c r="I21" s="61"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="69">
+      <c r="E22" s="95"/>
+      <c r="F22" s="94">
         <v>70000</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="61">
+      <c r="E24" s="91"/>
+      <c r="F24" s="78">
         <f>SUM(F21:G22)</f>
         <v>120000</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="61">
+      <c r="G24" s="66"/>
+      <c r="H24" s="78">
         <v>48000</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="26" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="66">
+      <c r="E26" s="93"/>
+      <c r="F26" s="92">
         <f>SUM(F24,H24)</f>
         <v>168000</v>
       </c>
-      <c r="G26" s="66"/>
+      <c r="G26" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3460,7 +5169,7 @@
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3485,16 +5194,16 @@
       <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
@@ -3503,104 +5212,104 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="76" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="112" t="s">
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="75"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="57"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="84"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="75"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="57"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="75"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="57"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="84"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="75"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="57"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="84"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="75"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="57"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="84"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F13" s="20" t="s">
@@ -3614,10 +5323,10 @@
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="6" t="s">
         <v>30</v>
       </c>
@@ -3630,14 +5339,14 @@
       <c r="E16" s="8">
         <v>270000</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="99">
         <v>1910000</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74">
+      <c r="G16" s="99"/>
+      <c r="H16" s="101">
         <v>15000</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F19" s="21" t="s">
@@ -3651,10 +5360,10 @@
       <c r="E21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -3663,10 +5372,10 @@
       <c r="E22" s="25">
         <v>72000</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="81">
         <v>108000</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="81"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="9" t="s">
@@ -3679,8 +5388,8 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
@@ -3692,10 +5401,10 @@
         <f>SUM(E22:E23)</f>
         <v>147000</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="81">
         <v>108000</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="27" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D27" s="18" t="s">
@@ -3713,18 +5422,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I5:L10"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="G5:H10"/>
-    <mergeCell ref="I5:L10"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3735,7 +5444,7 @@
   <dimension ref="B4:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3747,27 +5456,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="15" t="s">
         <v>16</v>
       </c>
@@ -3776,84 +5485,84 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="48" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="76" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="112" t="s">
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="80"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="106"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="80"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="106"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="80"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="106"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G11" s="20" t="s">
@@ -3867,10 +5576,10 @@
       <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
@@ -3883,14 +5592,14 @@
       <c r="F15" s="8">
         <v>190000</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="99">
         <v>1720000</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74">
+      <c r="H15" s="99"/>
+      <c r="I15" s="101">
         <v>12000</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="17" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G17" s="21" t="s">
@@ -3898,36 +5607,36 @@
       </c>
     </row>
     <row r="19" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="5:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="25">
         <v>52000</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="105">
         <v>70000</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="5:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="25">
         <v>56000</v>
       </c>
@@ -3935,31 +5644,31 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="5:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="25">
         <f>SUM(G20,G21)</f>
         <v>108000</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="105">
         <v>70000</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="25" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="78"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="19">
         <f>SUM(G23:I23)</f>
         <v>178000</v>
@@ -3977,19 +5686,19 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:I8"/>
     <mergeCell ref="J5:M8"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="N5:N8"/>
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4000,7 +5709,7 @@
   <dimension ref="B4:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4025,16 +5734,16 @@
       <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
@@ -4043,104 +5752,104 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="112" t="s">
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="106"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="86"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="80"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="80"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="80"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="80"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="106"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G12" s="20" t="s">
@@ -4154,10 +5863,10 @@
       <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
@@ -4170,14 +5879,14 @@
       <c r="F15" s="8">
         <v>270000</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="99">
         <v>1450000</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74">
+      <c r="H15" s="99"/>
+      <c r="I15" s="101">
         <v>15000</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="18" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G18" s="21" t="s">
@@ -4191,12 +5900,12 @@
       <c r="F20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E21" s="9" t="s">
@@ -4205,12 +5914,12 @@
       <c r="F21" s="25">
         <v>75000</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="78">
         <v>108000</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E22" s="9" t="s">
@@ -4240,12 +5949,12 @@
         <f>SUM(F21:F22)</f>
         <v>147000</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="78">
         <v>108000</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="26" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="10" t="s">
@@ -4263,6 +5972,7 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="M5:M10"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="L5:L10"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="G14:H14"/>
@@ -4273,7 +5983,6 @@
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="F5:G10"/>
     <mergeCell ref="H5:K10"/>
-    <mergeCell ref="L5:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4284,7 +5993,7 @@
   <dimension ref="C4:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4297,26 +6006,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="15" t="s">
         <v>16</v>
       </c>
@@ -4325,95 +6034,95 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="114"/>
+      <c r="J5" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="111" t="s">
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="57"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="84"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="57"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="57"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="84"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="57"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="84"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="H12" s="20" t="s">
@@ -4427,10 +6136,10 @@
       <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="98"/>
       <c r="J14" s="6" t="s">
         <v>30</v>
       </c>
@@ -4443,14 +6152,14 @@
       <c r="G15" s="8">
         <v>270000</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="99">
         <v>1180000</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74">
+      <c r="I15" s="99"/>
+      <c r="J15" s="101">
         <v>5000</v>
       </c>
-      <c r="K15" s="74"/>
+      <c r="K15" s="101"/>
     </row>
     <row r="17" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H17" s="21" t="s">
@@ -4464,12 +6173,12 @@
       <c r="G19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F20" s="9" t="s">
@@ -4478,12 +6187,12 @@
       <c r="G20" s="25">
         <v>52000</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="78">
         <v>128000</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21" s="9" t="s">
@@ -4513,12 +6222,12 @@
         <f>SUM(G20:G21)</f>
         <v>137000</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="78">
         <v>128000</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="25" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F25" s="32" t="s">
@@ -4557,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAEE9DD-B862-483E-ADBF-9E4297593A7C}">
   <dimension ref="B4:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L9"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4575,124 +6284,125 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="15" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="111" t="s">
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="118" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="118"/>
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="80"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="118"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="80"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="118"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="80"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="118"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4706,10 +6416,10 @@
       <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
@@ -4722,17 +6432,17 @@
       <c r="E14" s="8">
         <v>180000</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="99">
         <v>1000000</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74">
+      <c r="G14" s="99"/>
+      <c r="H14" s="101">
         <v>6000</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="17" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="45" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4743,12 +6453,12 @@
       <c r="E19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
@@ -4757,12 +6467,12 @@
       <c r="E20" s="25">
         <v>49000</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="115">
         <v>70000</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="4:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="9" t="s">
@@ -4792,12 +6502,12 @@
         <f>SUM(E20:E21)</f>
         <v>104000</v>
       </c>
-      <c r="F23" s="90">
+      <c r="F23" s="115">
         <v>70000</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="25" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D25" s="10" t="s">

--- a/final Task Excel.xlsx
+++ b/final Task Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA 14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9B7A7-7C3A-43C2-AA20-80EFEDF238DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581110E1-DEDA-4449-972A-4D29FEE0A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,91 +1010,103 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,16 +1121,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1139,16 +1151,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,13 +1166,19 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,19 +1187,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,12 +1199,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,15 +1219,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3055,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C9EDDA-EB9D-4505-A1B5-C3420ACE48FF}">
   <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3068,35 +3068,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="72" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="8" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="39" t="s">
         <v>16</v>
       </c>
@@ -3114,167 +3115,167 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="65" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="52">
         <v>3</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="66" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="52">
         <v>5</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="66" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="52">
         <v>5</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="58"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -3282,90 +3283,90 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="66" t="s">
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="52">
         <v>8</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="56"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="66" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="52">
         <v>8</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="55" t="s">
+      <c r="L21" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="56"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -3373,90 +3374,90 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="66" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="52">
         <v>8</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="55" t="s">
+      <c r="L24" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="56"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="66" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="52">
         <v>5</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="L26" s="55" t="s">
+      <c r="L26" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="56"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -3464,121 +3465,115 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="65" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="52">
         <v>5</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="66" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="52">
         <v>3</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="55" t="s">
+      <c r="L32" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B32:G33"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G31"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="B8:G8"/>
@@ -3595,26 +3590,32 @@
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B32:G33"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G31"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J12:J14"/>
     <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I29:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3639,26 +3640,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87" t="s">
+      <c r="I3" s="83"/>
+      <c r="J3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="15" t="s">
         <v>16</v>
       </c>
@@ -3667,80 +3668,80 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="97" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="111"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="84"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="111"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="84"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="80"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="112"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="84"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="34"/>
@@ -3761,10 +3762,10 @@
       <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="98"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="6" t="s">
         <v>30</v>
       </c>
@@ -3777,23 +3778,23 @@
       <c r="G13" s="8">
         <v>1000000</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="102">
         <v>0</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="101">
+      <c r="I13" s="102"/>
+      <c r="J13" s="98">
         <v>40000</v>
       </c>
-      <c r="K13" s="101"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="N15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="80" t="s">
+      <c r="O15" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="80"/>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H16" s="21" t="s">
@@ -3802,19 +3803,19 @@
       <c r="N16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="81">
+      <c r="O16" s="85">
         <v>3000</v>
       </c>
-      <c r="P16" s="81"/>
+      <c r="P16" s="85"/>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.3">
       <c r="N17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="81">
+      <c r="O17" s="85">
         <v>12000</v>
       </c>
-      <c r="P17" s="81"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" spans="6:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F18" s="17" t="s">
@@ -3823,19 +3824,19 @@
       <c r="G18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
       <c r="N18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="81">
+      <c r="O18" s="85">
         <v>15000</v>
       </c>
-      <c r="P18" s="81"/>
+      <c r="P18" s="85"/>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F19" s="9" t="s">
@@ -3844,19 +3845,19 @@
       <c r="G19" s="25">
         <v>72000</v>
       </c>
-      <c r="H19" s="105">
+      <c r="H19" s="106">
         <v>170000</v>
       </c>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
       <c r="N19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="81">
+      <c r="O19" s="85">
         <v>12000</v>
       </c>
-      <c r="P19" s="81"/>
+      <c r="P19" s="85"/>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F20" s="9" t="s">
@@ -3872,10 +3873,10 @@
       <c r="N20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="O20" s="81">
+      <c r="O20" s="85">
         <v>15000</v>
       </c>
-      <c r="P20" s="81"/>
+      <c r="P20" s="85"/>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F21" s="9" t="s">
@@ -3910,10 +3911,10 @@
       <c r="N22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="81">
+      <c r="O22" s="85">
         <v>6000</v>
       </c>
-      <c r="P22" s="81"/>
+      <c r="P22" s="85"/>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F23" s="9" t="s">
@@ -3929,10 +3930,10 @@
       <c r="N23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="81">
+      <c r="O23" s="85">
         <v>40000</v>
       </c>
-      <c r="P23" s="81"/>
+      <c r="P23" s="85"/>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F24" s="9" t="s">
@@ -4006,12 +4007,12 @@
         <f>SUM(G19:G27)</f>
         <v>590000</v>
       </c>
-      <c r="H29" s="105">
+      <c r="H29" s="106">
         <v>170000</v>
       </c>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="32" spans="6:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F32" s="10" t="s">
@@ -4024,20 +4025,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:I7"/>
-    <mergeCell ref="J4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
@@ -4051,6 +4038,20 @@
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:I7"/>
+    <mergeCell ref="J4:M7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4202,7 +4203,7 @@
   <dimension ref="D6:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8215A4FF-E683-4E67-A4FF-173A35ECA330}">
   <dimension ref="D2:I28"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="B1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4296,10 +4297,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D4" s="36" t="s">
@@ -4322,287 +4323,316 @@
       </c>
     </row>
     <row r="5" spans="4:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <v>210000</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="74"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="74"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="74"/>
-      <c r="E8" s="66" t="s">
+      <c r="D8" s="79"/>
+      <c r="E8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="75">
         <v>180000</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="74"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="74"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="75">
         <v>270000</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="75"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="78"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="75"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="78"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="75"/>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="75">
         <v>190000</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="75"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="78"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="75"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="78"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="75">
         <v>270000</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="76"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="78"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="76"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="78"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="76"/>
-      <c r="E20" s="66" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="75">
         <v>270000</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="76"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="78"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="76"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="78"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="75">
         <v>180000</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="77"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="77"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="77"/>
-      <c r="E26" s="66" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="75">
         <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="77"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="77"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I11:I13"/>
@@ -4619,35 +4649,6 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4658,7 +4659,7 @@
   <dimension ref="B4:V26"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4680,16 +4681,16 @@
       <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
@@ -4698,48 +4699,48 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -4751,18 +4752,18 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -4780,10 +4781,10 @@
       <c r="D13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
@@ -4796,14 +4797,14 @@
       <c r="D14" s="30">
         <v>210000</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="82">
         <v>2360000</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="82">
+      <c r="F14" s="82"/>
+      <c r="G14" s="86">
         <v>3000</v>
       </c>
-      <c r="H14" s="82"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>
@@ -4820,10 +4821,10 @@
       <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="22" t="s">
@@ -4832,10 +4833,10 @@
       <c r="D20" s="23">
         <v>45000</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="85">
         <v>57500</v>
       </c>
-      <c r="F20" s="81"/>
+      <c r="F20" s="85"/>
     </row>
     <row r="21" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="22" t="s">
@@ -4871,10 +4872,10 @@
         <f>SUM(D20:D22)</f>
         <v>150000</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="85">
         <v>57500</v>
       </c>
-      <c r="F24" s="81"/>
+      <c r="F24" s="85"/>
     </row>
     <row r="26" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
@@ -4887,12 +4888,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E24:F24"/>
@@ -4903,6 +4898,12 @@
     <mergeCell ref="F5:G7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="H5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4912,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191DDCFA-4169-4480-A797-FCA328B98B67}">
   <dimension ref="B4:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4925,26 +4926,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="83"/>
+      <c r="I4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
@@ -4953,65 +4954,65 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="97" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="80" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F10" s="20" t="s">
@@ -5025,10 +5026,10 @@
       <c r="E13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="85"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="17" t="s">
         <v>30</v>
       </c>
@@ -5041,14 +5042,14 @@
       <c r="E14" s="30">
         <v>180000</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="82">
         <v>2180000</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="82">
+      <c r="G14" s="82"/>
+      <c r="H14" s="86">
         <v>12000</v>
       </c>
-      <c r="I14" s="82"/>
+      <c r="I14" s="86"/>
     </row>
     <row r="17" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F17" s="21" t="s">
@@ -5056,109 +5057,109 @@
       </c>
     </row>
     <row r="20" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="80" t="s">
+      <c r="E20" s="81"/>
+      <c r="F20" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="80"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96">
+      <c r="E21" s="91"/>
+      <c r="F21" s="89">
         <v>50000</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="78">
+      <c r="G21" s="89"/>
+      <c r="H21" s="75">
         <v>48000</v>
       </c>
-      <c r="I21" s="78"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="94">
+      <c r="E22" s="91"/>
+      <c r="F22" s="90">
         <v>70000</v>
       </c>
-      <c r="G22" s="94"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="78">
+      <c r="E24" s="95"/>
+      <c r="F24" s="75">
         <f>SUM(F21:G22)</f>
         <v>120000</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="78">
+      <c r="G24" s="57"/>
+      <c r="H24" s="75">
         <v>48000</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="26" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="92">
+      <c r="E26" s="97"/>
+      <c r="F26" s="96">
         <f>SUM(F24,H24)</f>
         <v>168000</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L7"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5194,16 +5195,16 @@
       <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="83"/>
+      <c r="I4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
@@ -5215,101 +5216,101 @@
       <c r="C5" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="102" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="97" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="100"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="84"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="100"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="84"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="100"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="84"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="80"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="100"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="84"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="100"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="84"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="80"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F13" s="20" t="s">
@@ -5323,10 +5324,10 @@
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="98"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="6" t="s">
         <v>30</v>
       </c>
@@ -5339,14 +5340,14 @@
       <c r="E16" s="8">
         <v>270000</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="102">
         <v>1910000</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="101">
+      <c r="G16" s="102"/>
+      <c r="H16" s="98">
         <v>15000</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F19" s="21" t="s">
@@ -5360,10 +5361,10 @@
       <c r="E21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="80"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -5372,10 +5373,10 @@
       <c r="E22" s="25">
         <v>72000</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="85">
         <v>108000</v>
       </c>
-      <c r="G22" s="81"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="9" t="s">
@@ -5388,8 +5389,8 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
@@ -5401,10 +5402,10 @@
         <f>SUM(E22:E23)</f>
         <v>147000</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="85">
         <v>108000</v>
       </c>
-      <c r="G25" s="81"/>
+      <c r="G25" s="85"/>
     </row>
     <row r="27" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D27" s="18" t="s">
@@ -5417,23 +5418,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="G5:H10"/>
     <mergeCell ref="M5:M10"/>
     <mergeCell ref="N5:N10"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="I5:L10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="G5:H10"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5444,7 +5445,7 @@
   <dimension ref="B4:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5456,27 +5457,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15" t="s">
         <v>16</v>
       </c>
@@ -5485,84 +5486,84 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="65" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="102" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="97" t="s">
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="106" t="s">
+      <c r="O5" s="107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="108"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="106"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="107"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="108"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="106"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="107"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="107"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G11" s="20" t="s">
@@ -5576,10 +5577,10 @@
       <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="98"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
@@ -5592,14 +5593,14 @@
       <c r="F15" s="8">
         <v>190000</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="102">
         <v>1720000</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="101">
+      <c r="H15" s="102"/>
+      <c r="I15" s="98">
         <v>12000</v>
       </c>
-      <c r="J15" s="101"/>
+      <c r="J15" s="98"/>
     </row>
     <row r="17" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G17" s="21" t="s">
@@ -5607,36 +5608,36 @@
       </c>
     </row>
     <row r="19" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="104"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="H19" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="80"/>
+      <c r="I19" s="84"/>
     </row>
     <row r="20" spans="5:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="65"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="25">
         <v>52000</v>
       </c>
-      <c r="H20" s="105">
+      <c r="H20" s="106">
         <v>70000</v>
       </c>
-      <c r="I20" s="105"/>
+      <c r="I20" s="106"/>
     </row>
     <row r="21" spans="5:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="25">
         <v>56000</v>
       </c>
@@ -5644,31 +5645,31 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="5:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="25">
         <f>SUM(G20,G21)</f>
         <v>108000</v>
       </c>
-      <c r="H23" s="105">
+      <c r="H23" s="106">
         <v>70000</v>
       </c>
-      <c r="I23" s="105"/>
+      <c r="I23" s="106"/>
     </row>
     <row r="25" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="103"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="19">
         <f>SUM(G23:I23)</f>
         <v>178000</v>
@@ -5676,6 +5677,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C4:E4"/>
@@ -5686,19 +5700,6 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:I8"/>
     <mergeCell ref="J5:M8"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5709,7 +5710,7 @@
   <dimension ref="B4:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5734,16 +5735,16 @@
       <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
@@ -5752,104 +5753,104 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="102" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="97" t="s">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="111"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="106"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="111"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="111"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="106"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="111"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="106"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="106"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="107"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G12" s="20" t="s">
@@ -5863,10 +5864,10 @@
       <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="98"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
@@ -5879,14 +5880,14 @@
       <c r="F15" s="8">
         <v>270000</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="102">
         <v>1450000</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="101">
+      <c r="H15" s="102"/>
+      <c r="I15" s="98">
         <v>15000</v>
       </c>
-      <c r="J15" s="101"/>
+      <c r="J15" s="98"/>
     </row>
     <row r="18" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G18" s="21" t="s">
@@ -5900,12 +5901,12 @@
       <c r="F20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E21" s="9" t="s">
@@ -5914,12 +5915,12 @@
       <c r="F21" s="25">
         <v>75000</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="75">
         <v>108000</v>
       </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E22" s="9" t="s">
@@ -5949,12 +5950,12 @@
         <f>SUM(F21:F22)</f>
         <v>147000</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="75">
         <v>108000</v>
       </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="26" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="10" t="s">
@@ -5967,12 +5968,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="L5:L10"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="G14:H14"/>
@@ -5983,6 +5978,12 @@
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="F5:G10"/>
     <mergeCell ref="H5:K10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="L5:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5992,7 +5993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DA841-9310-4A9C-86D6-D192EC2FA67A}">
   <dimension ref="C4:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="105" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -6006,26 +6007,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15" t="s">
         <v>16</v>
       </c>
@@ -6034,95 +6035,95 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="65" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="57" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="114"/>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="66" t="s">
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="84" t="s">
+      <c r="O5" s="80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="83"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="114"/>
       <c r="I6" s="114"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="84"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="80"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="83"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="114"/>
       <c r="I7" s="114"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="84"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="83"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="114"/>
       <c r="I8" s="114"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="84"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="80"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="83"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="84"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="80"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="H12" s="20" t="s">
@@ -6136,10 +6137,10 @@
       <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="H14" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="98"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="6" t="s">
         <v>30</v>
       </c>
@@ -6152,14 +6153,14 @@
       <c r="G15" s="8">
         <v>270000</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="102">
         <v>1180000</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="101">
+      <c r="I15" s="102"/>
+      <c r="J15" s="98">
         <v>5000</v>
       </c>
-      <c r="K15" s="101"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="17" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H17" s="21" t="s">
@@ -6173,12 +6174,12 @@
       <c r="G19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="113" t="s">
+      <c r="H19" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F20" s="9" t="s">
@@ -6187,12 +6188,12 @@
       <c r="G20" s="25">
         <v>52000</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="75">
         <v>128000</v>
       </c>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21" s="9" t="s">
@@ -6222,12 +6223,12 @@
         <f>SUM(G20:G21)</f>
         <v>137000</v>
       </c>
-      <c r="H23" s="78">
+      <c r="H23" s="75">
         <v>128000</v>
       </c>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
     </row>
     <row r="25" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F25" s="32" t="s">
@@ -6240,14 +6241,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:I9"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="O5:O9"/>
     <mergeCell ref="H14:I14"/>
@@ -6257,6 +6250,14 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="J5:M9"/>
     <mergeCell ref="N5:N9"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6266,8 +6267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAEE9DD-B862-483E-ADBF-9E4297593A7C}">
   <dimension ref="B4:M25"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6294,16 +6295,16 @@
       <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119" t="s">
+      <c r="G4" s="116"/>
+      <c r="H4" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="43" t="s">
         <v>16</v>
       </c>
@@ -6312,10 +6313,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="117" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="114" t="s">
@@ -6337,13 +6338,13 @@
       <c r="L5" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="115" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="113"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="114"/>
       <c r="E6" s="114"/>
       <c r="F6" s="114"/>
@@ -6353,11 +6354,11 @@
       <c r="J6" s="114"/>
       <c r="K6" s="114"/>
       <c r="L6" s="114"/>
-      <c r="M6" s="118"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="113"/>
-      <c r="C7" s="120"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="114"/>
       <c r="E7" s="114"/>
       <c r="F7" s="114"/>
@@ -6367,11 +6368,11 @@
       <c r="J7" s="114"/>
       <c r="K7" s="114"/>
       <c r="L7" s="114"/>
-      <c r="M7" s="118"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="114"/>
       <c r="E8" s="114"/>
       <c r="F8" s="114"/>
@@ -6381,11 +6382,11 @@
       <c r="J8" s="114"/>
       <c r="K8" s="114"/>
       <c r="L8" s="114"/>
-      <c r="M8" s="118"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="120"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="114"/>
       <c r="E9" s="114"/>
       <c r="F9" s="114"/>
@@ -6395,7 +6396,7 @@
       <c r="J9" s="114"/>
       <c r="K9" s="114"/>
       <c r="L9" s="114"/>
-      <c r="M9" s="118"/>
+      <c r="M9" s="115"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
@@ -6416,10 +6417,10 @@
       <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="98"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
@@ -6432,14 +6433,14 @@
       <c r="E14" s="8">
         <v>180000</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="102">
         <v>1000000</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="101">
+      <c r="G14" s="102"/>
+      <c r="H14" s="98">
         <v>6000</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="98"/>
     </row>
     <row r="17" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F17" s="45" t="s">
@@ -6453,12 +6454,12 @@
       <c r="E19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
@@ -6467,12 +6468,12 @@
       <c r="E20" s="25">
         <v>49000</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="118">
         <v>70000</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="4:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="9" t="s">
@@ -6502,12 +6503,12 @@
         <f>SUM(E20:E21)</f>
         <v>104000</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="118">
         <v>70000</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="25" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D25" s="10" t="s">
@@ -6520,22 +6521,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C5:C9"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="F5:G9"/>
     <mergeCell ref="H5:K9"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
